--- a/branches/version-1/StructureDefinition-rendering.xlsx
+++ b/branches/version-1/StructureDefinition-rendering.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Extension : Item Rendering Settings</t>
+    <t>Extension : Object Rendering Settings</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-09T16:15:14+00:00</t>
+    <t>2022-05-09T16:42:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/version-1/StructureDefinition-rendering.xlsx
+++ b/branches/version-1/StructureDefinition-rendering.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-09T16:42:31+00:00</t>
+    <t>2022-05-09T17:25:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/version-1/StructureDefinition-rendering.xlsx
+++ b/branches/version-1/StructureDefinition-rendering.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-09T17:25:07+00:00</t>
+    <t>2022-05-09T17:41:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/version-1/StructureDefinition-rendering.xlsx
+++ b/branches/version-1/StructureDefinition-rendering.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-09T17:41:36+00:00</t>
+    <t>2022-05-09T17:47:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/version-1/StructureDefinition-rendering.xlsx
+++ b/branches/version-1/StructureDefinition-rendering.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-09T17:47:29+00:00</t>
+    <t>2022-05-09T17:48:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/version-1/StructureDefinition-rendering.xlsx
+++ b/branches/version-1/StructureDefinition-rendering.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-09T17:48:55+00:00</t>
+    <t>2022-05-09T17:49:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/version-1/StructureDefinition-rendering.xlsx
+++ b/branches/version-1/StructureDefinition-rendering.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-09T17:49:02+00:00</t>
+    <t>2022-05-09T17:56:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/version-1/StructureDefinition-rendering.xlsx
+++ b/branches/version-1/StructureDefinition-rendering.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-09T17:56:47+00:00</t>
+    <t>2022-05-09T17:59:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/version-1/StructureDefinition-rendering.xlsx
+++ b/branches/version-1/StructureDefinition-rendering.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-09T17:59:55+00:00</t>
+    <t>2022-05-09T19:51:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/version-1/StructureDefinition-rendering.xlsx
+++ b/branches/version-1/StructureDefinition-rendering.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-09T19:51:46+00:00</t>
+    <t>2022-05-10T12:02:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/version-1/StructureDefinition-rendering.xlsx
+++ b/branches/version-1/StructureDefinition-rendering.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-10T12:53:35+00:00</t>
+    <t>2022-05-10T16:32:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/version-1/StructureDefinition-rendering.xlsx
+++ b/branches/version-1/StructureDefinition-rendering.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-10T16:32:58+00:00</t>
+    <t>2022-05-10T17:44:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
